--- a/results/tables/Table 2 - National Means.xlsx
+++ b/results/tables/Table 2 - National Means.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
   <si>
     <t>Mean</t>
   </si>
@@ -44,301 +44,412 @@
     <t>Mean (Urban)</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
     <t>How many zoning districts, including overlays, are in the municipality?</t>
   </si>
   <si>
     <t>What is the longest frontage requirement for single family residential development in any district?</t>
   </si>
   <si>
-    <t>Mean of Mean Lot Sizes (Square Feet)</t>
-  </si>
-  <si>
-    <t>Mean of Min Lot Sizes (Square Feet)</t>
+    <t>Mean of Residential Min Lot Sizes</t>
+  </si>
+  <si>
+    <t>Min of Residential Min Lot Sizes</t>
+  </si>
+  <si>
+    <t>How many mandatory steps are involved in the approval process for a typical new multi-family building?</t>
+  </si>
+  <si>
+    <t>For a typical new multi-family building project in this jurisdiction, how many distinct governing bodies or agencies must give mandatory approval before construction can begin?</t>
+  </si>
+  <si>
+    <t>What is the maximum potential waiting time (in days) for government review of a typical new multi-family building?</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>24631</t>
+  </si>
+  <si>
+    <t>10102</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>17564</t>
+  </si>
+  <si>
+    <t>5885</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>5,463</t>
+  </si>
+  <si>
+    <t>5,198</t>
+  </si>
+  <si>
+    <t>5,409</t>
+  </si>
+  <si>
+    <t>5,426</t>
+  </si>
+  <si>
+    <t>5,782</t>
+  </si>
+  <si>
+    <t>5,749</t>
+  </si>
+  <si>
+    <t>5,093</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>17136</t>
+  </si>
+  <si>
+    <t>6970</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>21771</t>
+  </si>
+  <si>
+    <t>8982</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>34914</t>
+  </si>
+  <si>
+    <t>14302</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>235</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>83166</t>
-  </si>
-  <si>
-    <t>7518</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>63992</t>
-  </si>
-  <si>
-    <t>3715</t>
-  </si>
-  <si>
-    <t>4073</t>
-  </si>
-  <si>
-    <t>3911</t>
-  </si>
-  <si>
-    <t>3247</t>
+    <t>93</t>
+  </si>
+  <si>
+    <t>31029</t>
+  </si>
+  <si>
+    <t>12385</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>25706</t>
+  </si>
+  <si>
+    <t>10054</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>15557</t>
+  </si>
+  <si>
+    <t>7984</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Is multi-family housing allowed, either by right or special permit (including through overlays or cluster zoning)?</t>
+  </si>
+  <si>
+    <t>Are apartments above commercial (mixed use) allowed in any district?</t>
+  </si>
+  <si>
+    <t>Is multi-family housing listed as allowed through conversion (of either single family homes or non residential buildings)?</t>
+  </si>
+  <si>
+    <t>Are attached single family houses (townhouses, 3+ units) listed as an allowed use (by right or special permit)?</t>
+  </si>
+  <si>
+    <t>Does zoning include any provisions for housing that is restricted by age?</t>
+  </si>
+  <si>
+    <t>Are accessory or in-law apartments allowed (by right or special permit) in any district?</t>
+  </si>
+  <si>
+    <t>Is cluster development, planned unit development, open space residential design, or another type of flexible zoning allowed by right?</t>
+  </si>
+  <si>
+    <t>Is cluster development, planned unit development, open space residential design, or another type of flexible zoning allowed by special permit?</t>
+  </si>
+  <si>
+    <t>Does the zoning bylaw/ordinance include any mandates or incentives for development of affordable units?</t>
+  </si>
+  <si>
+    <t>Is there a town-wide annual or biannual cap on residential permits issued, and/or is project phasing required?</t>
+  </si>
+  <si>
+    <t>Are there restrictions on counting wetlands, sloped land or easements in lot size calculations?</t>
+  </si>
+  <si>
+    <t>Do developers have to comply with the requirement to include affordable housing, however defined, in their projects?</t>
+  </si>
+  <si>
+    <t>Are there townwide requirements for public hearings on any type of multi-family residential projects?</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>59547</t>
-  </si>
-  <si>
-    <t>7592</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>64074</t>
-  </si>
-  <si>
-    <t>7078</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>125230</t>
-  </si>
-  <si>
-    <t>7873</t>
+    <t>79</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>5,686</t>
+  </si>
+  <si>
+    <t>5,708</t>
+  </si>
+  <si>
+    <t>5,766</t>
+  </si>
+  <si>
+    <t>5,788</t>
+  </si>
+  <si>
+    <t>5,115</t>
+  </si>
+  <si>
+    <t>5,771</t>
+  </si>
+  <si>
+    <t>5,667</t>
+  </si>
+  <si>
+    <t>5,535</t>
+  </si>
+  <si>
+    <t>5,794</t>
+  </si>
+  <si>
+    <t>4,602</t>
+  </si>
+  <si>
+    <t>5,775</t>
+  </si>
+  <si>
+    <t>5,703</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>82185</t>
-  </si>
-  <si>
-    <t>9825</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>91247</t>
-  </si>
-  <si>
-    <t>6925</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>40112</t>
-  </si>
-  <si>
-    <t>6667</t>
-  </si>
-  <si>
-    <t>Is multi-family housing allowed, either by right or special permit (including through overlays or cluster zoning)?</t>
-  </si>
-  <si>
-    <t>Are apartments above commercial (mixed use) allowed in any district?</t>
-  </si>
-  <si>
-    <t>Is multi-family housing listed as allowed through conversion (of either single family houses or non residential buildings)?</t>
-  </si>
-  <si>
-    <t>Are attached single family houses (townhouses, 3+ units) listed as an allowed use (by right or special permit)?</t>
-  </si>
-  <si>
-    <t>Does zoning include any provisions for housing that is restricted by age?</t>
-  </si>
-  <si>
-    <t>Are accessory or in-law apartments allowed (by right or special permit) in any district?</t>
-  </si>
-  <si>
-    <t>Is cluster development, planned unit development, open space residential design, or another type of flexible zoning allowed by right?</t>
-  </si>
-  <si>
-    <t>Is cluster development, planned unit development, open space residential design, or another type of flexible zoning allowed by special permit?</t>
-  </si>
-  <si>
-    <t>Does the zoning bylaw/ordinance include any mandates or incentives for development of affordable units?</t>
-  </si>
-  <si>
-    <t>Is there a town-wide annual or biannual cap on residential permits issued, and/or is project phasing required?</t>
-  </si>
-  <si>
-    <t>Are there restrictions on counting wetlands, sloped land or easements in lot size calculations?</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>3741</t>
-  </si>
-  <si>
-    <t>2995</t>
-  </si>
-  <si>
-    <t>2908</t>
-  </si>
-  <si>
-    <t>3457</t>
-  </si>
-  <si>
-    <t>2534</t>
-  </si>
-  <si>
-    <t>2498</t>
-  </si>
-  <si>
-    <t>2291</t>
-  </si>
-  <si>
-    <t>3158</t>
-  </si>
-  <si>
-    <t>3086</t>
-  </si>
-  <si>
-    <t>3750</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>39</t>
+    <t>61</t>
   </si>
   <si>
     <t>83</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>91</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>73</t>
   </si>
 </sst>
 </file>
@@ -696,16 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,130 +844,226 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -869,16 +1073,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,354 +1110,418 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
         <v>85</v>
       </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
